--- a/data/trans_orig/IP1010-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP1010-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{602C44D3-5C41-4AA8-97AE-1B47D24169E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{72F2161F-B9FB-49DD-8F67-83BDAA4DF9D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{87B99E64-D7EC-4059-A4A7-8C08D9418273}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{376F8B21-1769-4134-8037-69EF52383A7A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -67,21 +67,99 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>99,69%</t>
   </si>
   <si>
     <t>98,49%</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
     <t>99,67%</t>
   </si>
   <si>
@@ -94,15 +172,9 @@
     <t>98,87%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
     <t>0,31%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
     <t>1,51%</t>
   </si>
   <si>
@@ -118,52 +190,49 @@
     <t>1,13%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -175,9 +244,6 @@
     <t>98,31%</t>
   </si>
   <si>
-    <t>99,3%</t>
-  </si>
-  <si>
     <t>99,83%</t>
   </si>
   <si>
@@ -190,78 +256,12 @@
     <t>1,69%</t>
   </si>
   <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
     <t>0,17%</t>
   </si>
   <si>
     <t>0,85%</t>
   </si>
   <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
     <t>99,36%</t>
   </si>
   <si>
@@ -307,46 +307,106 @@
     <t>Menores según si padecen trastornos mentales en 2012 (Tasa respuesta: 99,29%)</t>
   </si>
   <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
     <t>99,4%</t>
   </si>
   <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
     <t>99,7%</t>
   </si>
   <si>
-    <t>0,6%</t>
-  </si>
-  <si>
     <t>0,3%</t>
   </si>
   <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
   </si>
   <si>
     <t>99,05%</t>
@@ -379,66 +439,6 @@
     <t>1,28%</t>
   </si>
   <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
     <t>99,65%</t>
   </si>
   <si>
@@ -478,9 +478,60 @@
     <t>Menores según si padecen trastornos mentales en 2015 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
     <t>99,41%</t>
   </si>
   <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
     <t>97,89%</t>
   </si>
   <si>
@@ -490,9 +541,6 @@
     <t>99,07%</t>
   </si>
   <si>
-    <t>0,59%</t>
-  </si>
-  <si>
     <t>2,11%</t>
   </si>
   <si>
@@ -502,34 +550,22 @@
     <t>0,93%</t>
   </si>
   <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
   </si>
   <si>
     <t>99,6%</t>
@@ -554,42 +590,6 @@
   </si>
   <si>
     <t>0,2%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
   </si>
   <si>
     <t>98,62%</t>
@@ -1005,7 +1005,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{260041CE-54E5-44B9-A51B-EBB787AFF851}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AA6690A-6FD2-4E4B-B2E4-F4136E6F2333}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1123,10 +1123,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>321</v>
+        <v>33</v>
       </c>
       <c r="D4" s="7">
-        <v>211475</v>
+        <v>25444</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1138,31 +1138,31 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>311</v>
+        <v>29</v>
       </c>
       <c r="I4" s="7">
-        <v>194521</v>
+        <v>22724</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="7">
+        <v>62</v>
+      </c>
+      <c r="N4" s="7">
+        <v>48168</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M4" s="7">
-        <v>632</v>
-      </c>
-      <c r="N4" s="7">
-        <v>405996</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -1171,52 +1171,52 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="7">
-        <v>1</v>
-      </c>
-      <c r="D5" s="7">
-        <v>667</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="H5" s="7">
-        <v>1</v>
-      </c>
-      <c r="I5" s="7">
-        <v>642</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" s="7">
-        <v>2</v>
-      </c>
-      <c r="N5" s="7">
-        <v>1309</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1225,54 +1225,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>322</v>
+        <v>33</v>
       </c>
       <c r="D6" s="7">
-        <v>212142</v>
+        <v>25444</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>312</v>
+        <v>29</v>
       </c>
       <c r="I6" s="7">
-        <v>195163</v>
+        <v>22724</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>634</v>
+        <v>62</v>
       </c>
       <c r="N6" s="7">
-        <v>407305</v>
+        <v>48168</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1284,13 +1284,13 @@
         <v>126358</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H7" s="7">
         <v>173</v>
@@ -1299,13 +1299,13 @@
         <v>115397</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M7" s="7">
         <v>364</v>
@@ -1314,19 +1314,19 @@
         <v>241754</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
         <v>2</v>
@@ -1335,13 +1335,13 @@
         <v>1275</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -1350,13 +1350,13 @@
         <v>605</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -1365,13 +1365,13 @@
         <v>1881</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1386,13 +1386,13 @@
         <v>127633</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>174</v>
@@ -1401,13 +1401,13 @@
         <v>116002</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>367</v>
@@ -1416,117 +1416,117 @@
         <v>243635</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="D10" s="7">
-        <v>207124</v>
+        <v>211475</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="7">
+        <v>311</v>
+      </c>
+      <c r="I10" s="7">
+        <v>194521</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M10" s="7">
+        <v>632</v>
+      </c>
+      <c r="N10" s="7">
+        <v>405996</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="7">
-        <v>274</v>
-      </c>
-      <c r="I10" s="7">
-        <v>209315</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M10" s="7">
-        <v>579</v>
-      </c>
-      <c r="N10" s="7">
-        <v>416439</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>47</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
         <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>700</v>
+        <v>667</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="7">
+        <v>1</v>
+      </c>
+      <c r="I11" s="7">
+        <v>642</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="M11" s="7">
+        <v>2</v>
+      </c>
+      <c r="N11" s="7">
+        <v>1309</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="P11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="M11" s="7">
-        <v>1</v>
-      </c>
-      <c r="N11" s="7">
-        <v>700</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1535,123 +1535,123 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="D12" s="7">
-        <v>207824</v>
+        <v>212142</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>274</v>
+        <v>312</v>
       </c>
       <c r="I12" s="7">
-        <v>209315</v>
+        <v>195163</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>580</v>
+        <v>634</v>
       </c>
       <c r="N12" s="7">
-        <v>417139</v>
+        <v>407305</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>33</v>
+        <v>229</v>
       </c>
       <c r="D13" s="7">
-        <v>25444</v>
+        <v>147642</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" s="7">
+        <v>229</v>
+      </c>
+      <c r="I13" s="7">
+        <v>137817</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M13" s="7">
+        <v>458</v>
+      </c>
+      <c r="N13" s="7">
+        <v>285459</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H13" s="7">
-        <v>29</v>
-      </c>
-      <c r="I13" s="7">
-        <v>22724</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M13" s="7">
-        <v>62</v>
-      </c>
-      <c r="N13" s="7">
-        <v>48168</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>2015</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -1660,28 +1660,28 @@
         <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>2015</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1690,123 +1690,123 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>33</v>
+        <v>232</v>
       </c>
       <c r="D15" s="7">
-        <v>25444</v>
+        <v>149657</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>29</v>
+        <v>229</v>
       </c>
       <c r="I15" s="7">
-        <v>22724</v>
+        <v>137817</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>62</v>
+        <v>461</v>
       </c>
       <c r="N15" s="7">
-        <v>48168</v>
+        <v>287474</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>229</v>
+        <v>305</v>
       </c>
       <c r="D16" s="7">
-        <v>147642</v>
+        <v>207124</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="H16" s="7">
-        <v>229</v>
+        <v>274</v>
       </c>
       <c r="I16" s="7">
-        <v>137817</v>
+        <v>209315</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M16" s="7">
-        <v>458</v>
+        <v>579</v>
       </c>
       <c r="N16" s="7">
-        <v>285459</v>
+        <v>416439</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>67</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>2015</v>
+        <v>700</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="M17" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N17" s="7">
-        <v>2015</v>
+        <v>700</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>73</v>
@@ -1845,49 +1845,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>232</v>
+        <v>306</v>
       </c>
       <c r="D18" s="7">
-        <v>149657</v>
+        <v>207824</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>229</v>
+        <v>274</v>
       </c>
       <c r="I18" s="7">
-        <v>137817</v>
+        <v>209315</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>461</v>
+        <v>580</v>
       </c>
       <c r="N18" s="7">
-        <v>287474</v>
+        <v>417139</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1925,7 +1925,7 @@
         <v>74</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M19" s="7">
         <v>2095</v>
@@ -1946,7 +1946,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C20" s="7">
         <v>7</v>
@@ -1973,7 +1973,7 @@
         <v>84</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>81</v>
@@ -2006,13 +2006,13 @@
         <v>722700</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
         <v>1018</v>
@@ -2021,13 +2021,13 @@
         <v>681021</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M21" s="7">
         <v>2104</v>
@@ -2036,13 +2036,13 @@
         <v>1403721</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -2063,7 +2063,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1272271F-83D0-4698-86FB-734D347E426D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE3789EA-39A6-40BA-AEAB-D121EFB94EA8}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2181,55 +2181,55 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>321</v>
+        <v>28</v>
       </c>
       <c r="D4" s="7">
-        <v>221978</v>
+        <v>25455</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>89</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>317</v>
+        <v>25</v>
       </c>
       <c r="I4" s="7">
-        <v>205398</v>
+        <v>21477</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="M4" s="7">
-        <v>638</v>
+        <v>53</v>
       </c>
       <c r="N4" s="7">
-        <v>427376</v>
+        <v>46932</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -2238,43 +2238,43 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>896</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>896</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2283,54 +2283,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>321</v>
+        <v>28</v>
       </c>
       <c r="D6" s="7">
-        <v>221978</v>
+        <v>25455</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="7">
         <v>26</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="7">
-        <v>317</v>
-      </c>
       <c r="I6" s="7">
-        <v>205398</v>
+        <v>22373</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>638</v>
+        <v>54</v>
       </c>
       <c r="N6" s="7">
-        <v>427376</v>
+        <v>47828</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2342,13 +2342,13 @@
         <v>126956</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H7" s="7">
         <v>158</v>
@@ -2357,13 +2357,13 @@
         <v>113262</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M7" s="7">
         <v>338</v>
@@ -2372,19 +2372,19 @@
         <v>240218</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
         <v>1</v>
@@ -2393,13 +2393,13 @@
         <v>687</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -2408,13 +2408,13 @@
         <v>756</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -2423,13 +2423,13 @@
         <v>1443</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2444,13 +2444,13 @@
         <v>127643</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>159</v>
@@ -2459,13 +2459,13 @@
         <v>114018</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>340</v>
@@ -2474,84 +2474,84 @@
         <v>241661</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>278</v>
+        <v>321</v>
       </c>
       <c r="D10" s="7">
-        <v>205120</v>
+        <v>221978</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>104</v>
-      </c>
       <c r="G10" s="7" t="s">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="H10" s="7">
-        <v>275</v>
+        <v>317</v>
       </c>
       <c r="I10" s="7">
-        <v>210300</v>
+        <v>205398</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M10" s="7">
-        <v>553</v>
+        <v>638</v>
       </c>
       <c r="N10" s="7">
-        <v>415420</v>
+        <v>427376</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="C11" s="7">
-        <v>3</v>
-      </c>
-      <c r="D11" s="7">
-        <v>1962</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>109</v>
@@ -2563,25 +2563,25 @@
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>51</v>
+        <v>109</v>
       </c>
       <c r="M11" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N11" s="7">
-        <v>1962</v>
+        <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>110</v>
+        <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>111</v>
+        <v>18</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>112</v>
@@ -2593,78 +2593,78 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>281</v>
+        <v>321</v>
       </c>
       <c r="D12" s="7">
-        <v>207082</v>
+        <v>221978</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>275</v>
+        <v>317</v>
       </c>
       <c r="I12" s="7">
-        <v>210300</v>
+        <v>205398</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>556</v>
+        <v>638</v>
       </c>
       <c r="N12" s="7">
-        <v>417382</v>
+        <v>427376</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>28</v>
+        <v>255</v>
       </c>
       <c r="D13" s="7">
-        <v>25455</v>
+        <v>165985</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>113</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H13" s="7">
-        <v>25</v>
+        <v>240</v>
       </c>
       <c r="I13" s="7">
-        <v>21477</v>
+        <v>154396</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>114</v>
@@ -2673,13 +2673,13 @@
         <v>115</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>53</v>
+        <v>495</v>
       </c>
       <c r="N13" s="7">
-        <v>46932</v>
+        <v>320381</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>116</v>
@@ -2688,13 +2688,13 @@
         <v>117</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -2703,10 +2703,10 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>118</v>
@@ -2715,13 +2715,13 @@
         <v>1</v>
       </c>
       <c r="I14" s="7">
-        <v>896</v>
+        <v>443</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>119</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>120</v>
@@ -2730,13 +2730,13 @@
         <v>1</v>
       </c>
       <c r="N14" s="7">
-        <v>896</v>
+        <v>443</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>121</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>122</v>
@@ -2748,150 +2748,150 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>28</v>
+        <v>255</v>
       </c>
       <c r="D15" s="7">
-        <v>25455</v>
+        <v>165985</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>26</v>
+        <v>241</v>
       </c>
       <c r="I15" s="7">
-        <v>22373</v>
+        <v>154839</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>54</v>
+        <v>496</v>
       </c>
       <c r="N15" s="7">
-        <v>47828</v>
+        <v>320824</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>255</v>
+        <v>278</v>
       </c>
       <c r="D16" s="7">
-        <v>165985</v>
+        <v>205120</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="H16" s="7">
-        <v>240</v>
+        <v>275</v>
       </c>
       <c r="I16" s="7">
-        <v>154396</v>
+        <v>210300</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>124</v>
+        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M16" s="7">
+        <v>553</v>
+      </c>
+      <c r="N16" s="7">
+        <v>415420</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="L16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M16" s="7">
-        <v>495</v>
-      </c>
-      <c r="N16" s="7">
-        <v>320381</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>3</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1962</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="7">
-        <v>0</v>
-      </c>
-      <c r="D17" s="7">
-        <v>0</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1</v>
-      </c>
-      <c r="I17" s="7">
-        <v>443</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="L17" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="M17" s="7">
+        <v>3</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1962</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="M17" s="7">
-        <v>1</v>
-      </c>
-      <c r="N17" s="7">
-        <v>443</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>132</v>
@@ -2903,49 +2903,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="D18" s="7">
-        <v>165985</v>
+        <v>207082</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>241</v>
+        <v>275</v>
       </c>
       <c r="I18" s="7">
-        <v>154839</v>
+        <v>210300</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>496</v>
+        <v>556</v>
       </c>
       <c r="N18" s="7">
-        <v>320824</v>
+        <v>417382</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2977,10 +2977,10 @@
         <v>704833</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>136</v>
@@ -2992,7 +2992,7 @@
         <v>1450326</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>137</v>
@@ -3004,7 +3004,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C20" s="7">
         <v>4</v>
@@ -3028,13 +3028,13 @@
         <v>2095</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>142</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="M20" s="7">
         <v>7</v>
@@ -3043,7 +3043,7 @@
         <v>4744</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>143</v>
@@ -3064,13 +3064,13 @@
         <v>748142</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
         <v>1018</v>
@@ -3079,13 +3079,13 @@
         <v>706928</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M21" s="7">
         <v>2084</v>
@@ -3094,13 +3094,13 @@
         <v>1455070</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -3121,7 +3121,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BFEE583-A469-4BE7-ABFB-2F139258DBA2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{993C4C2F-6F43-40F9-B46A-1ADE27E64AD9}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3239,46 +3239,46 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>330</v>
+        <v>30</v>
       </c>
       <c r="D4" s="7">
-        <v>223025</v>
+        <v>25574</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="7">
+        <v>24</v>
+      </c>
+      <c r="I4" s="7">
+        <v>22527</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="7">
-        <v>334</v>
-      </c>
-      <c r="I4" s="7">
-        <v>207247</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>148</v>
-      </c>
       <c r="L4" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>664</v>
+        <v>54</v>
       </c>
       <c r="N4" s="7">
-        <v>430272</v>
+        <v>48101</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -3287,22 +3287,22 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="7">
-        <v>2</v>
-      </c>
-      <c r="D5" s="7">
-        <v>1334</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="G5" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3311,28 +3311,28 @@
         <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="M5" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>1334</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3341,54 +3341,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>332</v>
+        <v>30</v>
       </c>
       <c r="D6" s="7">
-        <v>224359</v>
+        <v>25574</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>334</v>
+        <v>24</v>
       </c>
       <c r="I6" s="7">
-        <v>207247</v>
+        <v>22527</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>666</v>
+        <v>54</v>
       </c>
       <c r="N6" s="7">
-        <v>431606</v>
+        <v>48101</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3400,13 +3400,13 @@
         <v>119597</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H7" s="7">
         <v>163</v>
@@ -3415,13 +3415,13 @@
         <v>111180</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M7" s="7">
         <v>324</v>
@@ -3430,19 +3430,19 @@
         <v>230777</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="P7" s="7" t="s">
-        <v>158</v>
-      </c>
       <c r="Q7" s="7" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
         <v>4</v>
@@ -3451,10 +3451,10 @@
         <v>2905</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>160</v>
@@ -3466,10 +3466,10 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>161</v>
@@ -3484,7 +3484,7 @@
         <v>162</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>163</v>
@@ -3502,13 +3502,13 @@
         <v>122502</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>163</v>
@@ -3517,13 +3517,13 @@
         <v>111180</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>328</v>
@@ -3532,87 +3532,87 @@
         <v>233682</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>289</v>
+        <v>330</v>
       </c>
       <c r="D10" s="7">
-        <v>204918</v>
+        <v>223025</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="7">
+        <v>334</v>
+      </c>
+      <c r="I10" s="7">
+        <v>207247</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="7">
-        <v>281</v>
-      </c>
-      <c r="I10" s="7">
-        <v>207420</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M10" s="7">
+        <v>664</v>
+      </c>
+      <c r="N10" s="7">
+        <v>430272</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M10" s="7">
-        <v>570</v>
-      </c>
-      <c r="N10" s="7">
-        <v>412338</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>134</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" s="7">
-        <v>818</v>
+        <v>1334</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -3621,28 +3621,28 @@
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M11" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N11" s="7">
-        <v>818</v>
+        <v>1334</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>171</v>
+        <v>44</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3651,108 +3651,108 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>290</v>
+        <v>332</v>
       </c>
       <c r="D12" s="7">
-        <v>205736</v>
+        <v>224359</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>281</v>
+        <v>334</v>
       </c>
       <c r="I12" s="7">
-        <v>207420</v>
+        <v>207247</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>571</v>
+        <v>666</v>
       </c>
       <c r="N12" s="7">
-        <v>413156</v>
+        <v>431606</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>30</v>
+        <v>248</v>
       </c>
       <c r="D13" s="7">
-        <v>25574</v>
+        <v>166673</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="7">
+        <v>258</v>
+      </c>
+      <c r="I13" s="7">
+        <v>155473</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M13" s="7">
+        <v>506</v>
+      </c>
+      <c r="N13" s="7">
+        <v>322146</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H13" s="7">
-        <v>24</v>
-      </c>
-      <c r="I13" s="7">
-        <v>22527</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M13" s="7">
-        <v>54</v>
-      </c>
-      <c r="N13" s="7">
-        <v>48101</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>174</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -3761,43 +3761,43 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="7">
+        <v>1</v>
+      </c>
+      <c r="I14" s="7">
+        <v>524</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="M14" s="7">
+        <v>1</v>
+      </c>
+      <c r="N14" s="7">
+        <v>524</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="M14" s="7">
-        <v>0</v>
-      </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3806,81 +3806,81 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>30</v>
+        <v>248</v>
       </c>
       <c r="D15" s="7">
-        <v>25574</v>
+        <v>166673</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>24</v>
+        <v>259</v>
       </c>
       <c r="I15" s="7">
-        <v>22527</v>
+        <v>155997</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>54</v>
+        <v>507</v>
       </c>
       <c r="N15" s="7">
-        <v>48101</v>
+        <v>322670</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>248</v>
+        <v>289</v>
       </c>
       <c r="D16" s="7">
-        <v>166673</v>
+        <v>204918</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>13</v>
+        <v>176</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>32</v>
+        <v>177</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="H16" s="7">
-        <v>258</v>
+        <v>281</v>
       </c>
       <c r="I16" s="7">
-        <v>155473</v>
+        <v>207420</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>178</v>
@@ -3889,70 +3889,70 @@
         <v>13</v>
       </c>
       <c r="M16" s="7">
-        <v>506</v>
+        <v>570</v>
       </c>
       <c r="N16" s="7">
-        <v>322146</v>
+        <v>412338</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>179</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>180</v>
+        <v>134</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1</v>
+      </c>
+      <c r="D17" s="7">
+        <v>818</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="7">
-        <v>0</v>
-      </c>
-      <c r="D17" s="7">
-        <v>0</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1</v>
-      </c>
-      <c r="I17" s="7">
-        <v>524</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
       </c>
       <c r="N17" s="7">
-        <v>524</v>
+        <v>818</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>183</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3961,49 +3961,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>248</v>
+        <v>290</v>
       </c>
       <c r="D18" s="7">
-        <v>166673</v>
+        <v>205736</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>259</v>
+        <v>281</v>
       </c>
       <c r="I18" s="7">
-        <v>155997</v>
+        <v>207420</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>507</v>
+        <v>571</v>
       </c>
       <c r="N18" s="7">
-        <v>322670</v>
+        <v>413156</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4020,13 +4020,13 @@
         <v>739787</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>184</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="H19" s="7">
         <v>1060</v>
@@ -4041,7 +4041,7 @@
         <v>186</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M19" s="7">
         <v>2118</v>
@@ -4062,7 +4062,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C20" s="7">
         <v>7</v>
@@ -4071,10 +4071,10 @@
         <v>5057</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>188</v>
@@ -4089,7 +4089,7 @@
         <v>189</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>190</v>
@@ -4122,13 +4122,13 @@
         <v>744844</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
         <v>1061</v>
@@ -4137,13 +4137,13 @@
         <v>704371</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M21" s="7">
         <v>2126</v>
@@ -4152,13 +4152,13 @@
         <v>1449215</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP1010-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP1010-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{72F2161F-B9FB-49DD-8F67-83BDAA4DF9D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A77C320-338D-4C54-9F3E-019436A952F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{376F8B21-1769-4134-8037-69EF52383A7A}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7CF311FA-47C7-4377-A805-71B9CD35FA1B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="185">
   <si>
     <t>Menores según si padecen trastornos mentales en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -70,6 +70,24 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
@@ -88,115 +106,118 @@
     <t>96,96%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
     <t>2/10</t>
   </si>
   <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
     <t>99,0%</t>
   </si>
   <si>
-    <t>96,11%</t>
+    <t>95,97%</t>
   </si>
   <si>
     <t>99,48%</t>
   </si>
   <si>
-    <t>97,37%</t>
+    <t>97,4%</t>
   </si>
   <si>
     <t>99,23%</t>
   </si>
   <si>
-    <t>97,83%</t>
+    <t>97,89%</t>
   </si>
   <si>
     <t>99,75%</t>
   </si>
   <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
     <t>10/50</t>
   </si>
   <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
     <t>99,69%</t>
   </si>
   <si>
-    <t>98,49%</t>
+    <t>98,43%</t>
   </si>
   <si>
     <t>99,67%</t>
   </si>
   <si>
-    <t>98,21%</t>
+    <t>98,46%</t>
   </si>
   <si>
     <t>99,68%</t>
   </si>
   <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
+    <t>98,88%</t>
   </si>
   <si>
     <t>mas de 50</t>
   </si>
   <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
     <t>98,65%</t>
   </si>
   <si>
-    <t>95,89%</t>
+    <t>96,0%</t>
   </si>
   <si>
     <t>99,57%</t>
@@ -208,175 +229,163 @@
     <t>99,3%</t>
   </si>
   <si>
-    <t>97,98%</t>
+    <t>98,1%</t>
   </si>
   <si>
     <t>99,78%</t>
   </si>
   <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
     <t>99,66%</t>
   </si>
   <si>
-    <t>98,31%</t>
+    <t>98,3%</t>
   </si>
   <si>
     <t>99,83%</t>
   </si>
   <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
   </si>
   <si>
     <t>99,36%</t>
   </si>
   <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
   </si>
   <si>
     <t>99,82%</t>
   </si>
   <si>
+    <t>99,45%</t>
+  </si>
+  <si>
     <t>99,58%</t>
   </si>
   <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
   <si>
     <t>Menores según si padecen trastornos mentales en 2012 (Tasa respuesta: 99,29%)</t>
   </si>
   <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
     <t>93,43%</t>
   </si>
   <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
+    <t>80,6%</t>
   </si>
   <si>
     <t>98,13%</t>
   </si>
   <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
   </si>
   <si>
     <t>99,46%</t>
   </si>
   <si>
-    <t>96,77%</t>
+    <t>97,29%</t>
   </si>
   <si>
     <t>99,34%</t>
   </si>
   <si>
-    <t>97,22%</t>
+    <t>96,64%</t>
   </si>
   <si>
     <t>99,4%</t>
   </si>
   <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
   </si>
   <si>
     <t>99,7%</t>
   </si>
   <si>
-    <t>0,3%</t>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
   </si>
   <si>
     <t>99,25%</t>
@@ -385,99 +394,84 @@
     <t>99,71%</t>
   </si>
   <si>
-    <t>98,59%</t>
+    <t>98,4%</t>
   </si>
   <si>
     <t>99,86%</t>
   </si>
   <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
   </si>
   <si>
     <t>99,05%</t>
   </si>
   <si>
-    <t>97,5%</t>
+    <t>97,44%</t>
   </si>
   <si>
     <t>99,53%</t>
   </si>
   <si>
-    <t>98,72%</t>
+    <t>98,74%</t>
   </si>
   <si>
     <t>99,85%</t>
   </si>
   <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
   </si>
   <si>
     <t>99,65%</t>
   </si>
   <si>
-    <t>99,2%</t>
+    <t>99,14%</t>
   </si>
   <si>
     <t>99,91%</t>
   </si>
   <si>
+    <t>99,12%</t>
+  </si>
+  <si>
     <t>99,94%</t>
   </si>
   <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
     <t>Menores según si padecen trastornos mentales en 2015 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
     <t>93,85%</t>
   </si>
   <si>
@@ -487,19 +481,22 @@
     <t>96,52%</t>
   </si>
   <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
   </si>
   <si>
     <t>99,41%</t>
@@ -511,43 +508,34 @@
     <t>98,76%</t>
   </si>
   <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
   </si>
   <si>
     <t>99,43%</t>
   </si>
   <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
   </si>
   <si>
     <t>98,32%</t>
@@ -556,64 +544,55 @@
     <t>99,84%</t>
   </si>
   <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
     <t>98,95%</t>
   </si>
   <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
   </si>
   <si>
     <t>99,93%</t>
   </si>
   <si>
-    <t>99,56%</t>
+    <t>99,52%</t>
   </si>
   <si>
     <t>99,61%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
   </si>
 </sst>
 </file>
@@ -624,7 +603,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -720,39 +699,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -804,7 +783,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -915,13 +894,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -930,6 +902,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -994,19 +973,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AA6690A-6FD2-4E4B-B2E4-F4136E6F2333}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D0A4BE6-4793-4CE5-9751-77A4857510DF}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1123,10 +1122,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>25444</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1138,34 +1137,34 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>22724</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M4" s="7">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>48168</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1174,10 +1173,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>25444</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -1189,34 +1188,34 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>22724</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>48168</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1231,13 +1230,13 @@
         <v>25444</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
         <v>29</v>
@@ -1246,13 +1245,13 @@
         <v>22724</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
         <v>62</v>
@@ -1261,13 +1260,13 @@
         <v>48168</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1278,40 +1277,40 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>191</v>
+        <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>126358</v>
+        <v>1275</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="H7" s="7">
-        <v>173</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>115397</v>
+        <v>605</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>25</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="M7" s="7">
-        <v>364</v>
+        <v>3</v>
       </c>
       <c r="N7" s="7">
-        <v>241754</v>
+        <v>1881</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>27</v>
@@ -1329,40 +1328,40 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>2</v>
+        <v>191</v>
       </c>
       <c r="D8" s="7">
-        <v>1275</v>
+        <v>126358</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>30</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>173</v>
       </c>
       <c r="I8" s="7">
-        <v>605</v>
+        <v>115397</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>32</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="7" t="s">
-        <v>33</v>
-      </c>
       <c r="M8" s="7">
-        <v>3</v>
+        <v>364</v>
       </c>
       <c r="N8" s="7">
-        <v>1881</v>
+        <v>241754</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>34</v>
@@ -1386,13 +1385,13 @@
         <v>127633</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
         <v>174</v>
@@ -1401,13 +1400,13 @@
         <v>116002</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
         <v>367</v>
@@ -1416,13 +1415,13 @@
         <v>243635</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1433,49 +1432,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>321</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>211475</v>
+        <v>667</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>38</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="H10" s="7">
-        <v>311</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>194521</v>
+        <v>642</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>40</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="M10" s="7">
-        <v>632</v>
+        <v>2</v>
       </c>
       <c r="N10" s="7">
-        <v>405996</v>
+        <v>1309</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>42</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1484,49 +1483,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>321</v>
       </c>
       <c r="D11" s="7">
-        <v>667</v>
+        <v>211475</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>311</v>
       </c>
       <c r="I11" s="7">
-        <v>642</v>
+        <v>194521</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>46</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="7" t="s">
-        <v>47</v>
-      </c>
       <c r="M11" s="7">
-        <v>2</v>
+        <v>632</v>
       </c>
       <c r="N11" s="7">
-        <v>1309</v>
+        <v>405996</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>48</v>
       </c>
       <c r="P11" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1541,13 +1540,13 @@
         <v>212142</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
         <v>312</v>
@@ -1556,13 +1555,13 @@
         <v>195163</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
         <v>634</v>
@@ -1571,13 +1570,13 @@
         <v>407305</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1588,10 +1587,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>229</v>
+        <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>147642</v>
+        <v>2015</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>51</v>
@@ -1603,25 +1602,25 @@
         <v>53</v>
       </c>
       <c r="H13" s="7">
-        <v>229</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>137817</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M13" s="7">
-        <v>458</v>
+        <v>3</v>
       </c>
       <c r="N13" s="7">
-        <v>285459</v>
+        <v>2015</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>55</v>
@@ -1639,10 +1638,10 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>3</v>
+        <v>229</v>
       </c>
       <c r="D14" s="7">
-        <v>2015</v>
+        <v>147642</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>58</v>
@@ -1654,25 +1653,25 @@
         <v>60</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>229</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>137817</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>3</v>
+        <v>458</v>
       </c>
       <c r="N14" s="7">
-        <v>2015</v>
+        <v>285459</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>62</v>
@@ -1696,13 +1695,13 @@
         <v>149657</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
         <v>229</v>
@@ -1711,13 +1710,13 @@
         <v>137817</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
         <v>461</v>
@@ -1726,13 +1725,13 @@
         <v>287474</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1743,49 +1742,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>305</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>207124</v>
+        <v>700</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>66</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="H16" s="7">
-        <v>274</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>209315</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="L16" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M16" s="7">
-        <v>579</v>
+        <v>1</v>
       </c>
       <c r="N16" s="7">
-        <v>416439</v>
+        <v>700</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>68</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1794,49 +1793,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>305</v>
       </c>
       <c r="D17" s="7">
-        <v>700</v>
+        <v>207124</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>70</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>71</v>
-      </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>274</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>209315</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="M17" s="7">
-        <v>1</v>
+        <v>579</v>
       </c>
       <c r="N17" s="7">
-        <v>700</v>
+        <v>416439</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>72</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1851,13 +1850,13 @@
         <v>207824</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H18" s="7">
         <v>274</v>
@@ -1866,13 +1865,13 @@
         <v>209315</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
         <v>580</v>
@@ -1881,13 +1880,13 @@
         <v>417139</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1898,10 +1897,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>1079</v>
+        <v>7</v>
       </c>
       <c r="D19" s="7">
-        <v>718042</v>
+        <v>4658</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>74</v>
@@ -1913,34 +1912,34 @@
         <v>76</v>
       </c>
       <c r="H19" s="7">
-        <v>1016</v>
+        <v>2</v>
       </c>
       <c r="I19" s="7">
-        <v>679774</v>
+        <v>1247</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>77</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="M19" s="7">
-        <v>2095</v>
+        <v>9</v>
       </c>
       <c r="N19" s="7">
-        <v>1397816</v>
+        <v>5905</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1949,10 +1948,10 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>7</v>
+        <v>1079</v>
       </c>
       <c r="D20" s="7">
-        <v>4658</v>
+        <v>718042</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>81</v>
@@ -1964,31 +1963,31 @@
         <v>83</v>
       </c>
       <c r="H20" s="7">
-        <v>2</v>
+        <v>1016</v>
       </c>
       <c r="I20" s="7">
-        <v>1247</v>
+        <v>679774</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>84</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L20" s="7" t="s">
-        <v>81</v>
-      </c>
       <c r="M20" s="7">
-        <v>9</v>
+        <v>2095</v>
       </c>
       <c r="N20" s="7">
-        <v>5905</v>
+        <v>1397816</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>86</v>
+        <v>34</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>87</v>
@@ -2006,13 +2005,13 @@
         <v>722700</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7">
         <v>1018</v>
@@ -2021,13 +2020,13 @@
         <v>681021</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
         <v>2104</v>
@@ -2036,13 +2035,18 @@
         <v>1403721</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2063,8 +2067,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE3789EA-39A6-40BA-AEAB-D121EFB94EA8}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F0577C4-7554-49F7-9B91-FC089179DFAC}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2080,7 +2084,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2181,49 +2185,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>25455</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="H4" s="7">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>21477</v>
+        <v>896</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="M4" s="7">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>46932</v>
+        <v>896</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>92</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2232,49 +2236,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>25455</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="I5" s="7">
-        <v>896</v>
+        <v>21477</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>53</v>
+      </c>
+      <c r="N5" s="7">
+        <v>46932</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="M5" s="7">
-        <v>1</v>
-      </c>
-      <c r="N5" s="7">
-        <v>896</v>
-      </c>
-      <c r="O5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2289,13 +2293,13 @@
         <v>25455</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
         <v>26</v>
@@ -2304,13 +2308,13 @@
         <v>22373</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
         <v>54</v>
@@ -2319,13 +2323,13 @@
         <v>47828</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2336,49 +2340,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>180</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>126956</v>
+        <v>687</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="H7" s="7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="7">
+        <v>756</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="7">
-        <v>158</v>
-      </c>
-      <c r="I7" s="7">
-        <v>113262</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>2</v>
+      </c>
+      <c r="N7" s="7">
+        <v>1443</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M7" s="7">
-        <v>338</v>
-      </c>
-      <c r="N7" s="7">
-        <v>240218</v>
-      </c>
-      <c r="O7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2387,49 +2391,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>180</v>
       </c>
       <c r="D8" s="7">
-        <v>687</v>
+        <v>126956</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="7">
+        <v>158</v>
+      </c>
+      <c r="I8" s="7">
+        <v>113262</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="H8" s="7">
-        <v>1</v>
-      </c>
-      <c r="I8" s="7">
-        <v>756</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>338</v>
+      </c>
+      <c r="N8" s="7">
+        <v>240218</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="M8" s="7">
-        <v>2</v>
-      </c>
-      <c r="N8" s="7">
-        <v>1443</v>
-      </c>
-      <c r="O8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2444,13 +2448,13 @@
         <v>127643</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
         <v>159</v>
@@ -2459,13 +2463,13 @@
         <v>114018</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
         <v>340</v>
@@ -2474,13 +2478,13 @@
         <v>241661</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2491,49 +2495,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>321</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>221978</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="H10" s="7">
-        <v>317</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>205398</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="M10" s="7">
-        <v>638</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>427376</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>13</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2542,49 +2546,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>321</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>221977</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>317</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>205398</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>0</v>
+        <v>638</v>
       </c>
       <c r="N11" s="7">
-        <v>0</v>
+        <v>427376</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>112</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2596,16 +2600,16 @@
         <v>321</v>
       </c>
       <c r="D12" s="7">
-        <v>221978</v>
+        <v>221977</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
         <v>317</v>
@@ -2614,13 +2618,13 @@
         <v>205398</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
         <v>638</v>
@@ -2629,13 +2633,13 @@
         <v>427376</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2646,49 +2650,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>165985</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H13" s="7">
+        <v>1</v>
+      </c>
+      <c r="I13" s="7">
+        <v>443</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="7">
-        <v>240</v>
-      </c>
-      <c r="I13" s="7">
-        <v>154396</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>1</v>
+      </c>
+      <c r="N13" s="7">
+        <v>443</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M13" s="7">
-        <v>495</v>
-      </c>
-      <c r="N13" s="7">
-        <v>320381</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>117</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>11</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2697,49 +2701,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>165985</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>18</v>
+        <v>116</v>
       </c>
       <c r="G14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="7">
+        <v>240</v>
+      </c>
+      <c r="I14" s="7">
+        <v>154396</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="H14" s="7">
-        <v>1</v>
-      </c>
-      <c r="I14" s="7">
-        <v>443</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M14" s="7">
+        <v>495</v>
+      </c>
+      <c r="N14" s="7">
+        <v>320381</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="P14" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="M14" s="7">
-        <v>1</v>
-      </c>
-      <c r="N14" s="7">
-        <v>443</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2754,13 +2758,13 @@
         <v>165985</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
         <v>241</v>
@@ -2769,13 +2773,13 @@
         <v>154839</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
         <v>496</v>
@@ -2784,13 +2788,13 @@
         <v>320824</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2801,49 +2805,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>278</v>
+        <v>3</v>
       </c>
       <c r="D16" s="7">
-        <v>205120</v>
+        <v>1962</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>124</v>
+        <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="H16" s="7">
-        <v>275</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>210300</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="L16" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M16" s="7">
-        <v>553</v>
+        <v>3</v>
       </c>
       <c r="N16" s="7">
-        <v>415420</v>
+        <v>1962</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2852,49 +2856,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>3</v>
+        <v>278</v>
       </c>
       <c r="D17" s="7">
-        <v>1962</v>
+        <v>205120</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>129</v>
+        <v>17</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>210300</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="M17" s="7">
-        <v>3</v>
+        <v>553</v>
       </c>
       <c r="N17" s="7">
-        <v>1962</v>
+        <v>415420</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2909,13 +2913,13 @@
         <v>207082</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H18" s="7">
         <v>275</v>
@@ -2924,13 +2928,13 @@
         <v>210300</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
         <v>556</v>
@@ -2939,13 +2943,13 @@
         <v>417382</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2956,49 +2960,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>1062</v>
+        <v>4</v>
       </c>
       <c r="D19" s="7">
-        <v>745493</v>
+        <v>2649</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="H19" s="7">
+        <v>3</v>
+      </c>
+      <c r="I19" s="7">
+        <v>2095</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1015</v>
-      </c>
-      <c r="I19" s="7">
-        <v>704833</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>136</v>
-      </c>
       <c r="M19" s="7">
-        <v>2077</v>
+        <v>7</v>
       </c>
       <c r="N19" s="7">
-        <v>1450326</v>
+        <v>4744</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>138</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3007,49 +3011,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>4</v>
+        <v>1062</v>
       </c>
       <c r="D20" s="7">
-        <v>2649</v>
+        <v>745493</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="H20" s="7">
+        <v>1015</v>
+      </c>
+      <c r="I20" s="7">
+        <v>704833</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2095</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>30</v>
-      </c>
       <c r="M20" s="7">
-        <v>7</v>
+        <v>2077</v>
       </c>
       <c r="N20" s="7">
-        <v>4744</v>
+        <v>1450326</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>46</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3064,13 +3068,13 @@
         <v>748142</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7">
         <v>1018</v>
@@ -3079,13 +3083,13 @@
         <v>706928</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
         <v>2084</v>
@@ -3094,13 +3098,18 @@
         <v>1455070</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -3121,8 +3130,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{993C4C2F-6F43-40F9-B46A-1ADE27E64AD9}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DA09838-5C69-457D-BE17-32C70ED763F0}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3138,7 +3147,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3239,49 +3248,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>25574</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>146</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>141</v>
       </c>
       <c r="H4" s="7">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>22527</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>147</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>142</v>
       </c>
       <c r="M4" s="7">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>48101</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>148</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3290,49 +3299,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>25574</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>144</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>149</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>22527</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>150</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>48101</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>146</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>151</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3347,13 +3356,13 @@
         <v>25574</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
         <v>24</v>
@@ -3362,13 +3371,13 @@
         <v>22527</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
         <v>54</v>
@@ -3377,13 +3386,13 @@
         <v>48101</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3394,49 +3403,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>161</v>
+        <v>4</v>
       </c>
       <c r="D7" s="7">
-        <v>119597</v>
+        <v>2905</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>152</v>
+        <v>103</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="H7" s="7">
-        <v>163</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>111180</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>149</v>
       </c>
       <c r="M7" s="7">
-        <v>324</v>
+        <v>4</v>
       </c>
       <c r="N7" s="7">
-        <v>230777</v>
+        <v>2905</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>157</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>38</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3445,49 +3454,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>4</v>
+        <v>161</v>
       </c>
       <c r="D8" s="7">
-        <v>2905</v>
+        <v>119597</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>158</v>
+        <v>109</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>111180</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>18</v>
+        <v>154</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>161</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>4</v>
+        <v>324</v>
       </c>
       <c r="N8" s="7">
-        <v>2905</v>
+        <v>230777</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3502,13 +3511,13 @@
         <v>122502</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
         <v>163</v>
@@ -3517,13 +3526,13 @@
         <v>111180</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
         <v>328</v>
@@ -3532,13 +3541,13 @@
         <v>233682</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3549,49 +3558,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>330</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>223025</v>
+        <v>1334</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>164</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>11</v>
+        <v>157</v>
       </c>
       <c r="H10" s="7">
-        <v>334</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>207247</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>165</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>13</v>
+        <v>158</v>
       </c>
       <c r="M10" s="7">
-        <v>664</v>
+        <v>2</v>
       </c>
       <c r="N10" s="7">
-        <v>430272</v>
+        <v>1334</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>38</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>166</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>11</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3600,49 +3609,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
+        <v>330</v>
       </c>
       <c r="D11" s="7">
-        <v>1334</v>
+        <v>223025</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>167</v>
-      </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>334</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>207247</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>18</v>
+        <v>161</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>168</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>2</v>
+        <v>664</v>
       </c>
       <c r="N11" s="7">
-        <v>1334</v>
+        <v>430272</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>44</v>
       </c>
       <c r="P11" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3657,13 +3666,13 @@
         <v>224359</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
         <v>334</v>
@@ -3672,13 +3681,13 @@
         <v>207247</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
         <v>666</v>
@@ -3687,13 +3696,13 @@
         <v>431606</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3704,49 +3713,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>248</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>166673</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="H13" s="7">
-        <v>258</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>155473</v>
+        <v>524</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>66</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>170</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="M13" s="7">
+        <v>1</v>
+      </c>
+      <c r="N13" s="7">
+        <v>524</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M13" s="7">
-        <v>506</v>
-      </c>
-      <c r="N13" s="7">
-        <v>322146</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>172</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>11</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3755,49 +3764,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>248</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>166673</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>1</v>
+        <v>258</v>
       </c>
       <c r="I14" s="7">
-        <v>524</v>
+        <v>155473</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>70</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L14" s="7" t="s">
-        <v>173</v>
-      </c>
       <c r="M14" s="7">
-        <v>1</v>
+        <v>506</v>
       </c>
       <c r="N14" s="7">
-        <v>524</v>
+        <v>322146</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3812,13 +3821,13 @@
         <v>166673</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
         <v>259</v>
@@ -3827,13 +3836,13 @@
         <v>155997</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
         <v>507</v>
@@ -3842,13 +3851,13 @@
         <v>322670</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3859,49 +3868,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>289</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>204918</v>
+        <v>818</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>177</v>
+        <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>11</v>
+        <v>170</v>
       </c>
       <c r="H16" s="7">
-        <v>281</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>207420</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>178</v>
+        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>13</v>
+        <v>171</v>
       </c>
       <c r="M16" s="7">
-        <v>570</v>
+        <v>1</v>
       </c>
       <c r="N16" s="7">
-        <v>412338</v>
+        <v>818</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>179</v>
+        <v>80</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>11</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3910,49 +3919,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>289</v>
       </c>
       <c r="D17" s="7">
-        <v>818</v>
+        <v>204918</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>181</v>
-      </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>281</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>207420</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>18</v>
+        <v>175</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>182</v>
+        <v>19</v>
       </c>
       <c r="M17" s="7">
-        <v>1</v>
+        <v>570</v>
       </c>
       <c r="N17" s="7">
-        <v>818</v>
+        <v>412338</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>183</v>
+        <v>87</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3967,13 +3976,13 @@
         <v>205736</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H18" s="7">
         <v>281</v>
@@ -3982,13 +3991,13 @@
         <v>207420</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
         <v>571</v>
@@ -3997,13 +4006,13 @@
         <v>413156</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4014,49 +4023,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>1058</v>
+        <v>7</v>
       </c>
       <c r="D19" s="7">
-        <v>739787</v>
+        <v>5057</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="H19" s="7">
+        <v>1</v>
+      </c>
+      <c r="I19" s="7">
+        <v>524</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1060</v>
-      </c>
-      <c r="I19" s="7">
-        <v>703847</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>185</v>
-      </c>
       <c r="K19" s="7" t="s">
-        <v>186</v>
+        <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>11</v>
+        <v>179</v>
       </c>
       <c r="M19" s="7">
-        <v>2118</v>
+        <v>8</v>
       </c>
       <c r="N19" s="7">
-        <v>1443634</v>
+        <v>5581</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4065,49 +4074,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>7</v>
+        <v>1058</v>
       </c>
       <c r="D20" s="7">
-        <v>5057</v>
+        <v>739787</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H20" s="7">
+        <v>1060</v>
+      </c>
+      <c r="I20" s="7">
+        <v>703847</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1</v>
-      </c>
-      <c r="I20" s="7">
-        <v>524</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>189</v>
-      </c>
       <c r="K20" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L20" s="7" t="s">
-        <v>190</v>
-      </c>
       <c r="M20" s="7">
-        <v>8</v>
+        <v>2118</v>
       </c>
       <c r="N20" s="7">
-        <v>5581</v>
+        <v>1443634</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4122,13 +4131,13 @@
         <v>744844</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7">
         <v>1061</v>
@@ -4137,13 +4146,13 @@
         <v>704371</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
         <v>2126</v>
@@ -4152,13 +4161,18 @@
         <v>1449215</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP1010-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP1010-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A77C320-338D-4C54-9F3E-019436A952F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9275B1A6-40BC-4832-80EF-B7E7D63F673E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7CF311FA-47C7-4377-A805-71B9CD35FA1B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{132296FA-471F-48A3-BCDF-A0702E5EA96C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="189">
   <si>
     <t>Menores según si padecen trastornos mentales en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -106,19 +106,19 @@
     <t>96,96%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>1,0%</t>
   </si>
   <si>
-    <t>4,03%</t>
+    <t>3,17%</t>
   </si>
   <si>
     <t>0,52%</t>
   </si>
   <si>
-    <t>2,6%</t>
+    <t>3,11%</t>
   </si>
   <si>
     <t>0,77%</t>
@@ -127,70 +127,70 @@
     <t>0,25%</t>
   </si>
   <si>
-    <t>2,11%</t>
+    <t>2,1%</t>
   </si>
   <si>
     <t>99,0%</t>
   </si>
   <si>
-    <t>95,97%</t>
+    <t>96,83%</t>
   </si>
   <si>
     <t>99,48%</t>
   </si>
   <si>
-    <t>97,4%</t>
+    <t>96,89%</t>
   </si>
   <si>
     <t>99,23%</t>
   </si>
   <si>
-    <t>97,89%</t>
+    <t>97,9%</t>
   </si>
   <si>
     <t>99,75%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>0,31%</t>
   </si>
   <si>
-    <t>1,57%</t>
+    <t>1,58%</t>
   </si>
   <si>
     <t>0,33%</t>
   </si>
   <si>
-    <t>1,54%</t>
+    <t>1,63%</t>
   </si>
   <si>
     <t>0,32%</t>
   </si>
   <si>
-    <t>1,12%</t>
+    <t>1,13%</t>
   </si>
   <si>
     <t>99,69%</t>
   </si>
   <si>
-    <t>98,43%</t>
+    <t>98,42%</t>
   </si>
   <si>
     <t>99,67%</t>
   </si>
   <si>
-    <t>98,46%</t>
+    <t>98,37%</t>
   </si>
   <si>
     <t>99,68%</t>
   </si>
   <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>1,35%</t>
@@ -199,397 +199,409 @@
     <t>0,43%</t>
   </si>
   <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen trastornos mentales en 2012 (Tasa respuesta: 99,29%)</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
     <t>4,0%</t>
   </si>
   <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
   </si>
   <si>
     <t>96,0%</t>
   </si>
   <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
+    <t>75,95%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen trastornos mentales en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
   </si>
   <si>
     <t>0,2%</t>
   </si>
   <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
   </si>
   <si>
     <t>99,8%</t>
   </si>
   <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si padecen trastornos mentales en 2012 (Tasa respuesta: 99,29%)</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen trastornos mentales en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
+    <t>99,01%</t>
   </si>
   <si>
     <t>0,07%</t>
   </si>
   <si>
-    <t>0,48%</t>
+    <t>0,37%</t>
   </si>
   <si>
     <t>0,39%</t>
   </si>
   <si>
-    <t>98,68%</t>
-  </si>
-  <si>
     <t>99,93%</t>
   </si>
   <si>
-    <t>99,52%</t>
+    <t>99,63%</t>
   </si>
   <si>
     <t>99,61%</t>
@@ -1004,7 +1016,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D0A4BE6-4793-4CE5-9751-77A4857510DF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC32B09C-98B2-4B87-A725-0E2516FE85DB}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1939,7 +1951,7 @@
         <v>80</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1954,13 +1966,13 @@
         <v>718042</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H20" s="7">
         <v>1016</v>
@@ -1969,10 +1981,10 @@
         <v>679774</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>17</v>
@@ -1984,13 +1996,13 @@
         <v>1397816</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2046,7 +2058,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2067,7 +2079,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F0577C4-7554-49F7-9B91-FC089179DFAC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F961296-BBF5-4E59-8892-590396E216F8}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2084,7 +2096,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2197,7 +2209,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -2206,13 +2218,13 @@
         <v>896</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -2221,13 +2233,13 @@
         <v>896</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2245,7 +2257,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -2257,10 +2269,10 @@
         <v>21477</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>17</v>
@@ -2272,10 +2284,10 @@
         <v>46932</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>17</v>
@@ -2346,13 +2358,13 @@
         <v>687</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -2361,13 +2373,13 @@
         <v>756</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -2376,13 +2388,13 @@
         <v>1443</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2397,10 +2409,10 @@
         <v>126956</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>17</v>
@@ -2412,10 +2424,10 @@
         <v>113262</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>17</v>
@@ -2427,10 +2439,10 @@
         <v>240218</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>17</v>
@@ -2507,7 +2519,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2522,7 +2534,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -2537,7 +2549,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2549,13 +2561,13 @@
         <v>321</v>
       </c>
       <c r="D11" s="7">
-        <v>221977</v>
+        <v>221978</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -2570,7 +2582,7 @@
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -2585,7 +2597,7 @@
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -2600,7 +2612,7 @@
         <v>321</v>
       </c>
       <c r="D12" s="7">
-        <v>221977</v>
+        <v>221978</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -2662,7 +2674,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -2671,13 +2683,13 @@
         <v>443</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -2686,13 +2698,13 @@
         <v>443</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2710,7 +2722,7 @@
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
@@ -2740,7 +2752,7 @@
         <v>119</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>17</v>
@@ -2814,7 +2826,7 @@
         <v>120</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>121</v>
@@ -2868,7 +2880,7 @@
         <v>126</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>17</v>
+        <v>113</v>
       </c>
       <c r="H17" s="7">
         <v>275</v>
@@ -2981,7 +2993,7 @@
         <v>2095</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>133</v>
@@ -2999,10 +3011,10 @@
         <v>40</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3017,13 +3029,13 @@
         <v>745493</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H20" s="7">
         <v>1015</v>
@@ -3032,13 +3044,13 @@
         <v>704833</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M20" s="7">
         <v>2077</v>
@@ -3050,10 +3062,10 @@
         <v>46</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3109,7 +3121,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -3130,7 +3142,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DA09838-5C69-457D-BE17-32C70ED763F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCF5289C-18B2-40C5-8F43-F5B8CC69444C}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3147,7 +3159,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3260,7 +3272,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3275,7 +3287,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3290,7 +3302,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3308,7 +3320,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -3323,7 +3335,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -3338,7 +3350,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -3409,13 +3421,13 @@
         <v>2905</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>103</v>
+        <v>151</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>147</v>
+        <v>104</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3430,7 +3442,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -3439,13 +3451,13 @@
         <v>2905</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>38</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3460,13 +3472,13 @@
         <v>119597</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>109</v>
+        <v>156</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>153</v>
+        <v>110</v>
       </c>
       <c r="H8" s="7">
         <v>163</v>
@@ -3478,7 +3490,7 @@
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -3490,10 +3502,10 @@
         <v>230777</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>44</v>
@@ -3564,13 +3576,13 @@
         <v>1334</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>157</v>
+        <v>105</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3585,7 +3597,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -3600,7 +3612,7 @@
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3615,10 +3627,10 @@
         <v>223025</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>160</v>
+        <v>111</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>17</v>
@@ -3633,7 +3645,7 @@
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -3648,7 +3660,7 @@
         <v>44</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>17</v>
@@ -3740,7 +3752,7 @@
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -3749,13 +3761,13 @@
         <v>524</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3788,7 +3800,7 @@
         <v>70</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>17</v>
@@ -3800,10 +3812,10 @@
         <v>322146</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>17</v>
@@ -3874,13 +3886,13 @@
         <v>818</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3895,7 +3907,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -3904,13 +3916,13 @@
         <v>818</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>80</v>
+        <v>176</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3925,10 +3937,10 @@
         <v>204918</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>17</v>
@@ -3943,7 +3955,7 @@
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
@@ -3955,10 +3967,10 @@
         <v>412338</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>87</v>
+        <v>181</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>17</v>
@@ -4029,13 +4041,13 @@
         <v>5057</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>177</v>
+        <v>51</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -4044,13 +4056,13 @@
         <v>524</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="M19" s="7">
         <v>8</v>
@@ -4059,10 +4071,10 @@
         <v>5581</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>68</v>
+        <v>123</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>55</v>
@@ -4080,10 +4092,10 @@
         <v>739787</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>181</v>
+        <v>58</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>117</v>
@@ -4095,10 +4107,10 @@
         <v>703847</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>17</v>
@@ -4110,13 +4122,13 @@
         <v>1443634</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>62</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>72</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4172,7 +4184,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP1010-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP1010-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9275B1A6-40BC-4832-80EF-B7E7D63F673E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2945D672-3E05-45F7-94C2-8BE08CFCBA56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{132296FA-471F-48A3-BCDF-A0702E5EA96C}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{34152680-2991-4A09-B415-B7D566643A85}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="176">
   <si>
     <t>Menores según si padecen trastornos mentales en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -67,532 +67,493 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
+    <t>0,44%</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
     <t>0%</t>
   </si>
   <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen trastornos mentales en 2012 (Tasa respuesta: 99,29%)</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
   </si>
   <si>
     <t>1,0%</t>
   </si>
   <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen trastornos mentales en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
   </si>
   <si>
     <t>0,77%</t>
   </si>
   <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
   </si>
   <si>
     <t>99,23%</t>
   </si>
   <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si padecen trastornos mentales en 2012 (Tasa respuesta: 99,29%)</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>75,95%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen trastornos mentales en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
     <t>99,84%</t>
   </si>
   <si>
-    <t>98,98%</t>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
   </si>
   <si>
     <t>0,4%</t>
   </si>
   <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
+    <t>2,25%</t>
   </si>
   <si>
     <t>0,2%</t>
   </si>
   <si>
-    <t>0,99%</t>
+    <t>99,32%</t>
   </si>
   <si>
     <t>99,6%</t>
   </si>
   <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
+    <t>97,75%</t>
   </si>
   <si>
     <t>99,8%</t>
   </si>
   <si>
-    <t>99,01%</t>
-  </si>
-  <si>
     <t>0,07%</t>
   </si>
   <si>
-    <t>0,37%</t>
+    <t>1,38%</t>
   </si>
   <si>
     <t>0,39%</t>
@@ -601,7 +562,7 @@
     <t>99,93%</t>
   </si>
   <si>
-    <t>99,63%</t>
+    <t>98,62%</t>
   </si>
   <si>
     <t>99,61%</t>
@@ -1016,8 +977,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC32B09C-98B2-4B87-A725-0E2516FE85DB}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{849D24B4-376D-4A2C-AED1-973380CD4FD8}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1134,10 +1095,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>605</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1149,85 +1110,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>1275</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>1881</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
-        <v>33</v>
+        <v>202</v>
       </c>
       <c r="D5" s="7">
-        <v>25444</v>
+        <v>138121</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H5" s="7">
-        <v>29</v>
+        <v>224</v>
       </c>
       <c r="I5" s="7">
-        <v>22724</v>
+        <v>151802</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M5" s="7">
-        <v>62</v>
+        <v>426</v>
       </c>
       <c r="N5" s="7">
-        <v>48168</v>
+        <v>289922</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1236,153 +1197,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>33</v>
+        <v>203</v>
       </c>
       <c r="D6" s="7">
-        <v>25444</v>
+        <v>138726</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
-        <v>29</v>
+        <v>226</v>
       </c>
       <c r="I6" s="7">
-        <v>22724</v>
+        <v>153077</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
-        <v>62</v>
+        <v>429</v>
       </c>
       <c r="N6" s="7">
-        <v>48168</v>
+        <v>291803</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>1275</v>
+        <v>642</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>605</v>
+        <v>667</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="M7" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N7" s="7">
-        <v>1881</v>
+        <v>1309</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
-        <v>191</v>
+        <v>311</v>
       </c>
       <c r="D8" s="7">
-        <v>126358</v>
+        <v>194521</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H8" s="7">
-        <v>173</v>
+        <v>321</v>
       </c>
       <c r="I8" s="7">
-        <v>115397</v>
+        <v>211475</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="M8" s="7">
-        <v>364</v>
+        <v>632</v>
       </c>
       <c r="N8" s="7">
-        <v>241754</v>
+        <v>405996</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1391,153 +1352,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>193</v>
+        <v>312</v>
       </c>
       <c r="D9" s="7">
-        <v>127633</v>
+        <v>195163</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
-        <v>174</v>
+        <v>322</v>
       </c>
       <c r="I9" s="7">
-        <v>116002</v>
+        <v>212142</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
-        <v>367</v>
+        <v>634</v>
       </c>
       <c r="N9" s="7">
-        <v>243635</v>
+        <v>407305</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>667</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="H10" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I10" s="7">
-        <v>642</v>
+        <v>2015</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="M10" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N10" s="7">
-        <v>1309</v>
+        <v>2015</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>321</v>
+        <v>229</v>
       </c>
       <c r="D11" s="7">
-        <v>211475</v>
+        <v>137817</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="H11" s="7">
-        <v>311</v>
+        <v>229</v>
       </c>
       <c r="I11" s="7">
-        <v>194521</v>
+        <v>147642</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="M11" s="7">
-        <v>632</v>
+        <v>458</v>
       </c>
       <c r="N11" s="7">
-        <v>405996</v>
+        <v>285459</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1546,153 +1507,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>322</v>
+        <v>229</v>
       </c>
       <c r="D12" s="7">
-        <v>212142</v>
+        <v>137817</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
-        <v>312</v>
+        <v>232</v>
       </c>
       <c r="I12" s="7">
-        <v>195163</v>
+        <v>149657</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
-        <v>634</v>
+        <v>461</v>
       </c>
       <c r="N12" s="7">
-        <v>407305</v>
+        <v>287474</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>2015</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M13" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>2015</v>
+        <v>700</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
-        <v>229</v>
+        <v>274</v>
       </c>
       <c r="D14" s="7">
-        <v>147642</v>
+        <v>209315</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="H14" s="7">
-        <v>229</v>
+        <v>305</v>
       </c>
       <c r="I14" s="7">
-        <v>137817</v>
+        <v>207124</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M14" s="7">
-        <v>458</v>
+        <v>579</v>
       </c>
       <c r="N14" s="7">
-        <v>285459</v>
+        <v>416439</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1701,153 +1662,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>232</v>
+        <v>274</v>
       </c>
       <c r="D15" s="7">
-        <v>149657</v>
+        <v>209315</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
-        <v>229</v>
+        <v>306</v>
       </c>
       <c r="I15" s="7">
-        <v>137817</v>
+        <v>207824</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
-        <v>461</v>
+        <v>580</v>
       </c>
       <c r="N15" s="7">
-        <v>287474</v>
+        <v>417139</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>700</v>
+        <v>1247</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="7">
+        <v>7</v>
+      </c>
+      <c r="I16" s="7">
+        <v>4658</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>55</v>
-      </c>
       <c r="M16" s="7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="N16" s="7">
-        <v>700</v>
+        <v>5905</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>68</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
-        <v>305</v>
+        <v>1016</v>
       </c>
       <c r="D17" s="7">
-        <v>207124</v>
+        <v>679774</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H17" s="7">
-        <v>274</v>
+        <v>1079</v>
       </c>
       <c r="I17" s="7">
-        <v>209315</v>
+        <v>718042</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="M17" s="7">
-        <v>579</v>
+        <v>2095</v>
       </c>
       <c r="N17" s="7">
-        <v>416439</v>
+        <v>1397816</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1856,217 +1817,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>306</v>
+        <v>1018</v>
       </c>
       <c r="D18" s="7">
-        <v>207824</v>
+        <v>681021</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
-        <v>274</v>
+        <v>1086</v>
       </c>
       <c r="I18" s="7">
-        <v>209315</v>
+        <v>722700</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
-        <v>580</v>
+        <v>2104</v>
       </c>
       <c r="N18" s="7">
-        <v>417139</v>
+        <v>1403721</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>7</v>
-      </c>
-      <c r="D19" s="7">
-        <v>4658</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="H19" s="7">
-        <v>2</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1247</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="A19" t="s">
         <v>77</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="M19" s="7">
-        <v>9</v>
-      </c>
-      <c r="N19" s="7">
-        <v>5905</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1079</v>
-      </c>
-      <c r="D20" s="7">
-        <v>718042</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1016</v>
-      </c>
-      <c r="I20" s="7">
-        <v>679774</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2095</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1397816</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1086</v>
-      </c>
-      <c r="D21" s="7">
-        <v>722700</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I21" s="7">
-        <v>681021</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2104</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1403721</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>90</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2079,8 +1884,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F961296-BBF5-4E59-8892-590396E216F8}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD620F71-16B6-4035-B48B-E81886804EEB}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2096,7 +1901,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2197,100 +2002,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>1652</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>896</v>
+        <v>687</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N4" s="7">
-        <v>896</v>
+        <v>2339</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
-        <v>28</v>
+        <v>183</v>
       </c>
       <c r="D5" s="7">
-        <v>25455</v>
+        <v>134739</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H5" s="7">
-        <v>25</v>
+        <v>208</v>
       </c>
       <c r="I5" s="7">
-        <v>21477</v>
+        <v>152411</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="M5" s="7">
-        <v>53</v>
+        <v>391</v>
       </c>
       <c r="N5" s="7">
-        <v>46932</v>
+        <v>287150</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2299,153 +2104,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>28</v>
+        <v>185</v>
       </c>
       <c r="D6" s="7">
-        <v>25455</v>
+        <v>136391</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
-        <v>26</v>
+        <v>209</v>
       </c>
       <c r="I6" s="7">
-        <v>22373</v>
+        <v>153098</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
-        <v>54</v>
+        <v>394</v>
       </c>
       <c r="N6" s="7">
-        <v>47828</v>
+        <v>289489</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>687</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>756</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="M7" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>1443</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
-        <v>180</v>
+        <v>317</v>
       </c>
       <c r="D8" s="7">
-        <v>126956</v>
+        <v>205398</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>106</v>
+        <v>22</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="H8" s="7">
-        <v>158</v>
+        <v>321</v>
       </c>
       <c r="I8" s="7">
-        <v>113262</v>
+        <v>221977</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>108</v>
+        <v>22</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="M8" s="7">
-        <v>338</v>
+        <v>638</v>
       </c>
       <c r="N8" s="7">
-        <v>240218</v>
+        <v>427376</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>110</v>
+        <v>22</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2454,72 +2259,72 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>181</v>
+        <v>317</v>
       </c>
       <c r="D9" s="7">
-        <v>127643</v>
+        <v>205398</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
-        <v>159</v>
+        <v>321</v>
       </c>
       <c r="I9" s="7">
-        <v>114018</v>
+        <v>221977</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
-        <v>340</v>
+        <v>638</v>
       </c>
       <c r="N9" s="7">
-        <v>241661</v>
+        <v>427376</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>443</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2528,79 +2333,79 @@
         <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>443</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>321</v>
+        <v>240</v>
       </c>
       <c r="D11" s="7">
-        <v>221978</v>
+        <v>154396</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>17</v>
+        <v>102</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H11" s="7">
-        <v>317</v>
+        <v>255</v>
       </c>
       <c r="I11" s="7">
-        <v>205398</v>
+        <v>165985</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M11" s="7">
-        <v>638</v>
+        <v>495</v>
       </c>
       <c r="N11" s="7">
-        <v>427376</v>
+        <v>320381</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2609,54 +2414,54 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>321</v>
+        <v>241</v>
       </c>
       <c r="D12" s="7">
-        <v>221978</v>
+        <v>154839</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
-        <v>317</v>
+        <v>255</v>
       </c>
       <c r="I12" s="7">
-        <v>205398</v>
+        <v>165985</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
-        <v>638</v>
+        <v>496</v>
       </c>
       <c r="N12" s="7">
-        <v>427376</v>
+        <v>320824</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2668,94 +2473,94 @@
         <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I13" s="7">
-        <v>443</v>
+        <v>1962</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="M13" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N13" s="7">
-        <v>443</v>
+        <v>1962</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="D14" s="7">
-        <v>165985</v>
+        <v>210300</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H14" s="7">
-        <v>240</v>
+        <v>278</v>
       </c>
       <c r="I14" s="7">
-        <v>154396</v>
+        <v>205120</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="M14" s="7">
-        <v>495</v>
+        <v>553</v>
       </c>
       <c r="N14" s="7">
-        <v>320381</v>
+        <v>415420</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>17</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2764,54 +2569,54 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="D15" s="7">
-        <v>165985</v>
+        <v>210300</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
-        <v>241</v>
+        <v>281</v>
       </c>
       <c r="I15" s="7">
-        <v>154839</v>
+        <v>207082</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
-        <v>496</v>
+        <v>556</v>
       </c>
       <c r="N15" s="7">
-        <v>320824</v>
+        <v>417382</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2820,97 +2625,97 @@
         <v>3</v>
       </c>
       <c r="D16" s="7">
-        <v>1962</v>
+        <v>2095</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H16" s="7">
+        <v>4</v>
+      </c>
+      <c r="I16" s="7">
+        <v>2649</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>55</v>
-      </c>
       <c r="M16" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N16" s="7">
-        <v>1962</v>
+        <v>4744</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
-        <v>278</v>
+        <v>1015</v>
       </c>
       <c r="D17" s="7">
-        <v>205120</v>
+        <v>704833</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>1062</v>
+      </c>
+      <c r="I17" s="7">
+        <v>745493</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="H17" s="7">
-        <v>275</v>
-      </c>
-      <c r="I17" s="7">
-        <v>210300</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="K17" s="7" t="s">
-        <v>62</v>
+        <v>127</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>19</v>
+        <v>128</v>
       </c>
       <c r="M17" s="7">
-        <v>553</v>
+        <v>2077</v>
       </c>
       <c r="N17" s="7">
-        <v>415420</v>
+        <v>1450326</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>127</v>
+        <v>36</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2919,217 +2724,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>281</v>
+        <v>1018</v>
       </c>
       <c r="D18" s="7">
-        <v>207082</v>
+        <v>706928</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
-        <v>275</v>
+        <v>1066</v>
       </c>
       <c r="I18" s="7">
-        <v>210300</v>
+        <v>748142</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
-        <v>556</v>
+        <v>2084</v>
       </c>
       <c r="N18" s="7">
-        <v>417382</v>
+        <v>1455070</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>4</v>
-      </c>
-      <c r="D19" s="7">
-        <v>2649</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="H19" s="7">
-        <v>3</v>
-      </c>
-      <c r="I19" s="7">
-        <v>2095</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="M19" s="7">
-        <v>7</v>
-      </c>
-      <c r="N19" s="7">
-        <v>4744</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1062</v>
-      </c>
-      <c r="D20" s="7">
-        <v>745493</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1015</v>
-      </c>
-      <c r="I20" s="7">
-        <v>704833</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2077</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1450326</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1066</v>
-      </c>
-      <c r="D21" s="7">
-        <v>748142</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I21" s="7">
-        <v>706928</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2084</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1455070</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>90</v>
+      <c r="A19" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3142,8 +2791,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCF5289C-18B2-40C5-8F43-F5B8CC69444C}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F10BD4AF-BFCC-4F6B-96A8-8C279D14C8A4}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3159,7 +2808,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3266,94 +2915,94 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>2905</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>133</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>2905</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>136</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>137</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
-        <v>30</v>
+        <v>187</v>
       </c>
       <c r="D5" s="7">
-        <v>25574</v>
+        <v>133707</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H5" s="7">
-        <v>24</v>
+        <v>191</v>
       </c>
       <c r="I5" s="7">
-        <v>22527</v>
+        <v>145171</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>17</v>
+        <v>140</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>19</v>
+        <v>142</v>
       </c>
       <c r="M5" s="7">
-        <v>54</v>
+        <v>378</v>
       </c>
       <c r="N5" s="7">
-        <v>48101</v>
+        <v>278878</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>17</v>
+        <v>143</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3362,153 +3011,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>30</v>
+        <v>187</v>
       </c>
       <c r="D6" s="7">
-        <v>25574</v>
+        <v>133707</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
-        <v>24</v>
+        <v>195</v>
       </c>
       <c r="I6" s="7">
-        <v>22527</v>
+        <v>148076</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
-        <v>54</v>
+        <v>382</v>
       </c>
       <c r="N6" s="7">
-        <v>48101</v>
+        <v>281783</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>2905</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>151</v>
+        <v>12</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>104</v>
+        <v>43</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>1334</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>147</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="M7" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N7" s="7">
-        <v>2905</v>
+        <v>1334</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>154</v>
+        <v>32</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
-        <v>161</v>
+        <v>334</v>
       </c>
       <c r="D8" s="7">
-        <v>119597</v>
+        <v>207247</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>156</v>
+        <v>22</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>110</v>
+        <v>28</v>
       </c>
       <c r="H8" s="7">
-        <v>163</v>
+        <v>330</v>
       </c>
       <c r="I8" s="7">
-        <v>111180</v>
+        <v>223025</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>17</v>
+        <v>151</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M8" s="7">
-        <v>324</v>
+        <v>664</v>
       </c>
       <c r="N8" s="7">
-        <v>230777</v>
+        <v>430272</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>159</v>
+        <v>38</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3517,72 +3166,72 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>165</v>
+        <v>334</v>
       </c>
       <c r="D9" s="7">
-        <v>122502</v>
+        <v>207247</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
-        <v>163</v>
+        <v>332</v>
       </c>
       <c r="I9" s="7">
-        <v>111180</v>
+        <v>224359</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
-        <v>328</v>
+        <v>666</v>
       </c>
       <c r="N9" s="7">
-        <v>233682</v>
+        <v>431606</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>1334</v>
+        <v>524</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>161</v>
+        <v>57</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>105</v>
+        <v>154</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3591,79 +3240,79 @@
         <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="M10" s="7">
+        <v>1</v>
+      </c>
+      <c r="N10" s="7">
+        <v>524</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="M10" s="7">
-        <v>2</v>
-      </c>
-      <c r="N10" s="7">
-        <v>1334</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>330</v>
+        <v>258</v>
       </c>
       <c r="D11" s="7">
-        <v>223025</v>
+        <v>155473</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>164</v>
+        <v>61</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>111</v>
+        <v>158</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H11" s="7">
-        <v>334</v>
+        <v>248</v>
       </c>
       <c r="I11" s="7">
-        <v>207247</v>
+        <v>166673</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M11" s="7">
-        <v>664</v>
+        <v>506</v>
       </c>
       <c r="N11" s="7">
-        <v>430272</v>
+        <v>322146</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>44</v>
+        <v>160</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3672,54 +3321,54 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>332</v>
+        <v>259</v>
       </c>
       <c r="D12" s="7">
-        <v>224359</v>
+        <v>155997</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
-        <v>334</v>
+        <v>248</v>
       </c>
       <c r="I12" s="7">
-        <v>207247</v>
+        <v>166673</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
-        <v>666</v>
+        <v>507</v>
       </c>
       <c r="N12" s="7">
-        <v>431606</v>
+        <v>322670</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3731,94 +3380,94 @@
         <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>27</v>
+        <v>162</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>524</v>
+        <v>818</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>66</v>
+        <v>163</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>524</v>
+        <v>818</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>169</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
-        <v>248</v>
+        <v>281</v>
       </c>
       <c r="D14" s="7">
-        <v>166673</v>
+        <v>207420</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>34</v>
+        <v>166</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H14" s="7">
-        <v>258</v>
+        <v>289</v>
       </c>
       <c r="I14" s="7">
-        <v>155473</v>
+        <v>204918</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>70</v>
+        <v>167</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="M14" s="7">
-        <v>506</v>
+        <v>570</v>
       </c>
       <c r="N14" s="7">
-        <v>322146</v>
+        <v>412338</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3827,54 +3476,54 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>248</v>
+        <v>281</v>
       </c>
       <c r="D15" s="7">
-        <v>166673</v>
+        <v>207420</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="I15" s="7">
-        <v>155997</v>
+        <v>205736</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
-        <v>507</v>
+        <v>571</v>
       </c>
       <c r="N15" s="7">
-        <v>322670</v>
+        <v>413156</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3883,97 +3532,97 @@
         <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>818</v>
+        <v>524</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>174</v>
-      </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>5057</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>11</v>
+        <v>162</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="M16" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N16" s="7">
-        <v>818</v>
+        <v>5581</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>177</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
-        <v>289</v>
+        <v>1060</v>
       </c>
       <c r="D17" s="7">
-        <v>204918</v>
+        <v>703847</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>179</v>
+        <v>20</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H17" s="7">
-        <v>281</v>
+        <v>1058</v>
       </c>
       <c r="I17" s="7">
-        <v>207420</v>
+        <v>739787</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>17</v>
+        <v>166</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>19</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
-        <v>570</v>
+        <v>2118</v>
       </c>
       <c r="N17" s="7">
-        <v>412338</v>
+        <v>1443634</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>182</v>
+        <v>75</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3982,217 +3631,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>290</v>
+        <v>1061</v>
       </c>
       <c r="D18" s="7">
-        <v>205736</v>
+        <v>704371</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
-        <v>281</v>
+        <v>1065</v>
       </c>
       <c r="I18" s="7">
-        <v>207420</v>
+        <v>744844</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
-        <v>571</v>
+        <v>2126</v>
       </c>
       <c r="N18" s="7">
-        <v>413156</v>
+        <v>1449215</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>7</v>
-      </c>
-      <c r="D19" s="7">
-        <v>5057</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1</v>
-      </c>
-      <c r="I19" s="7">
-        <v>524</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="M19" s="7">
-        <v>8</v>
-      </c>
-      <c r="N19" s="7">
-        <v>5581</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1058</v>
-      </c>
-      <c r="D20" s="7">
-        <v>739787</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1060</v>
-      </c>
-      <c r="I20" s="7">
-        <v>703847</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2118</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1443634</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1065</v>
-      </c>
-      <c r="D21" s="7">
-        <v>744844</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1061</v>
-      </c>
-      <c r="I21" s="7">
-        <v>704371</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2126</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1449215</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>90</v>
+      <c r="A19" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
